--- a/테이블/전투/방어/방어 데이터 테이블.xlsx
+++ b/테이블/전투/방어/방어 데이터 테이블.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\Project TirgerGhostField\기획\테이블\전투\방어\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160B2710-00DE-4C90-AA13-B3B2EDA6F445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25FB780-A416-4F65-8E68-6F2C671AC415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>속성 명칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,15 @@
   <si>
     <t>Class&lt;InputAction&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어조작키1</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>방어조작키2</t>
   </si>
 </sst>
 </file>
@@ -664,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C19B3A-9DE6-4959-8646-89E4535BEFF0}">
-  <dimension ref="B1:H1"/>
+  <dimension ref="B1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -680,7 +689,7 @@
     <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
         <v>방어 Id</v>
@@ -701,13 +710,39 @@
         <f t="array" aca="1" ref="F1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
         <v>선행 방어 방식</v>
       </c>
-      <c r="G1" t="str" cm="1">
-        <f t="array" aca="1" ref="G1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
-        <v>속성 없음</v>
-      </c>
-      <c r="H1" t="str" cm="1">
-        <f t="array" aca="1" ref="H1" ca="1">IF(INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1)=0,"속성 없음",INDIRECT("'도메인 정의'!B" &amp; COLUMN()+1))</f>
-        <v>속성 없음</v>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
